--- a/Tableau_Performance_Checklist.xlsx
+++ b/Tableau_Performance_Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bnd-my.sharepoint.com/personal/simon_aubert_businessdecision_com/Documents/Documents/travail tab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="598" documentId="8_{948783F0-E1A4-4ABC-9AF1-29403D56C637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C2271E3-D931-40A5-9350-1F59AB54271A}"/>
+  <xr:revisionPtr revIDLastSave="646" documentId="8_{948783F0-E1A4-4ABC-9AF1-29403D56C637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C25CED5-6E79-4A3E-B35D-5AC80CC5FDB0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C74E125F-BC82-4AC8-91D3-2B30B8DB9446}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{C74E125F-BC82-4AC8-91D3-2B30B8DB9446}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="168">
   <si>
     <t>Machine</t>
   </si>
@@ -70,12 +70,6 @@
     <t>CPU</t>
   </si>
   <si>
-    <t>Nb</t>
-  </si>
-  <si>
-    <t>GHz</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>Quantity of machine if cluster</t>
   </si>
   <si>
-    <t>please check Tableau requirements</t>
-  </si>
-  <si>
     <t>Relationship/join/union</t>
   </si>
   <si>
@@ -205,9 +196,6 @@
     <t>the idea is to isolate the dataviz in production queue to keep a controlled ressource pooling.</t>
   </si>
   <si>
-    <t>usually, several kinds of statistics : table, column, even partition</t>
-  </si>
-  <si>
     <t>useful on the dimension fields you use the most</t>
   </si>
   <si>
@@ -233,9 +221,6 @@
   </si>
   <si>
     <t>Most</t>
-  </si>
-  <si>
-    <t>on vertica, it's the real way the data is stored, you can have several by table. It's a way to precalculate.</t>
   </si>
   <si>
     <t>Vertica</t>
@@ -351,9 +336,6 @@
   </si>
   <si>
     <t>Limit number of worsheet</t>
-  </si>
-  <si>
-    <t>instead of doing two tables, can you merge it? Instead of doing two separate pie charts on two sheets, can you do one pie chart with a column field in order to have only one sheet? Can you split your dashboard in several dashboards? The idea is to reduce the number of queries on one dashboard.</t>
   </si>
   <si>
     <t>Fix size of dashboard instead of automatic</t>
@@ -503,9 +485,6 @@
     <t>Web Browser up to date</t>
   </si>
   <si>
-    <t>try to deport as much as you can the calculation before Tableau Viz (in database, in file… with help of ELT/ELT/Dataprep tools). E.g : left(date,4)=&gt; create a Year field in the data. Unit Price*Quantity =&gt; create an Amount field.</t>
-  </si>
-  <si>
     <t>For rendering performance.</t>
   </si>
   <si>
@@ -546,6 +525,60 @@
   </si>
   <si>
     <t>the http_requests (and the associate view) from the workgroup db in the Tableau Server Repository can help. It's used in the Tableau Server Insights datasource available here : https://github.com/tableau/community-tableau-server-insights</t>
+  </si>
+  <si>
+    <t>Hard Drive</t>
+  </si>
+  <si>
+    <t>SSD?</t>
+  </si>
+  <si>
+    <t>PCIE Generation</t>
+  </si>
+  <si>
+    <t>v1.1</t>
+  </si>
+  <si>
+    <t>Hard drive</t>
+  </si>
+  <si>
+    <t>try to deport as much as you can the calculation before Tableau Viz (in database, in file… with help of ELT/ELT/Dataprep tools). E.g : left(date,4)=&gt; create a Year field in the data. Unit Price*Quantity =&gt; create an Amount field.
+Please note that you can retrieve calculations :
+-by using c: in the search bar of your field panel (available everyhere you're editing a viz)
+-downloading your workbook and then using this python script : https://github.com/scinana/tableauCalculationExport/
+-extracting it with Alteryx cf https://www.theinformationlab.co.uk/2016/06/07/extract-calculated-fields-tableau-alteryx/</t>
+  </si>
+  <si>
+    <t>Instead of doing two tables, can you merge it? Instead of doing two separate pie charts on two sheets, can you do one pie chart with a column field in order to have only one sheet? Can you split your dashboard in several dashboards? The idea is to reduce the number of queries on one dashboard.</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>on Vertica, it's the real way the data is stored, you can have several by table. It's a way to precalculate.</t>
+  </si>
+  <si>
+    <t>Faster when doing dataviz, either index are row stored</t>
+  </si>
+  <si>
+    <t>Usually, the newer the faster</t>
+  </si>
+  <si>
+    <t>usually, several kinds of statistics : table, column, even partition. Statistics can be used to store some metrics and also will help query execution plan. Ideally, update statistics every time the table is updated (of course, when you use a dedicated table, not when it's a transactionnal table)</t>
+  </si>
+  <si>
+    <t>Not all SSD are equals, the PCIE 6 bandwidth is x8 higher than PCIE 3</t>
+  </si>
+  <si>
+    <t>Nb of cores</t>
+  </si>
+  <si>
+    <t>Frequency(GHz)</t>
+  </si>
+  <si>
+    <t>please check Tableau requirements
+https://www.tableau.com/products/techspecs
+https://help.tableau.com/current/server/en-us/server_hardware_min.htm</t>
   </si>
 </sst>
 </file>
@@ -617,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -634,9 +667,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -660,6 +690,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -902,13 +938,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2065020</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1718,6 +1754,54 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="213360" cy="213360"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Graphique 1" descr="Calendrier journalier contour">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1A8B33-1ACB-4DF3-AEFE-300564C2E3FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9204960" y="731520"/>
+          <a:ext cx="213360" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2020,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188E99E2-F6D0-4D15-8F41-38536668FE54}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2032,50 +2116,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="8" t="s">
-        <v>39</v>
+      <c r="A1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2096,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8B7ACA-B407-43AD-ABD1-CCBBDC7A1A60}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2110,139 +2194,149 @@
     <col min="6" max="6" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="380.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="380.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{9B1B5648-0F60-48F2-A086-8DBEE1B93A37}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0154F27A-BFA3-45D1-A05C-E80EF4928A2B}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.21875" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="8" t="s">
-        <v>39</v>
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2291,10 +2385,10 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2304,7 +2398,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2313,29 +2407,29 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -2343,42 +2437,60 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="H10" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" t="s">
-        <v>145</v>
+        <v>28</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2389,117 +2501,127 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5DBCE6-D522-4256-96FD-8C475E8D6FF5}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.109375" customWidth="1"/>
     <col min="3" max="3" width="95.6640625" customWidth="1"/>
+    <col min="4" max="4" width="85.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="16"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{FEF0120F-D7CD-4DD2-BD59-D3AC398CA4B9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2508,7 +2630,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2518,63 +2640,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
-        <v>39</v>
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2587,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FDD220-8B14-4078-9E7E-E2BB0055094A}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -2599,58 +2721,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -2658,50 +2782,50 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="42.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2717,84 +2841,86 @@
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -2802,22 +2928,22 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3"/>
@@ -2833,138 +2959,145 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2C2EC4-1775-4B9E-A79C-C5388CB82D23}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="59.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
@@ -2977,9 +3110,12 @@
       <c r="C24" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{7D82A9A1-222E-4B8E-8AA6-72235194A2CB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2987,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D453F56-D44D-4B6E-A64E-F77B37588480}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2998,32 +3134,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3042,10 +3178,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C3930B-4800-479B-8A0E-78BAF4517090}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3056,45 +3192,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>121</v>
+      <c r="A1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>82</v>
+      <c r="A2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="15">
+        <v>119</v>
+      </c>
+      <c r="D3" s="14">
+        <v>45116</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="14">
         <v>45066</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>77</v>
+      <c r="E4" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
